--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.013020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.013020.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2111,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2153,12 +2153,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2321,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3243,12 +3243,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3327,12 +3327,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4255,12 +4255,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4961,12 +4961,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5835,12 +5835,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6129,12 +6129,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6633,12 +6633,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7179,12 +7179,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7599,12 +7599,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7641,12 +7641,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7683,12 +7683,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8145,12 +8145,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8313,12 +8313,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8355,12 +8355,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8397,12 +8397,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8733,12 +8733,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8901,12 +8901,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8985,12 +8985,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9111,12 +9111,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9195,12 +9195,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9279,12 +9279,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9867,12 +9867,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9909,12 +9909,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10161,12 +10161,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10581,12 +10581,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11047,12 +11047,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11341,12 +11341,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11677,12 +11677,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11761,12 +11761,12 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11845,12 +11845,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11929,12 +11929,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12055,12 +12055,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12181,12 +12181,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12223,12 +12223,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12391,12 +12391,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12811,12 +12811,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12853,12 +12853,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13277,12 +13277,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13403,12 +13403,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13529,12 +13529,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13571,12 +13571,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13701,12 +13701,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13827,12 +13827,12 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14709,12 +14709,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14919,12 +14919,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15973,12 +15973,12 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16393,12 +16393,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17027,12 +17027,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17111,12 +17111,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18703,12 +18703,12 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18955,12 +18955,12 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -19081,12 +19081,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19123,12 +19123,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19627,12 +19627,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20761,12 +20761,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20803,12 +20803,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20887,12 +20887,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20971,12 +20971,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21013,12 +21013,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21223,12 +21223,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21475,12 +21475,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21643,12 +21643,12 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22105,12 +22105,12 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22525,12 +22525,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23151,12 +23151,12 @@
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23235,12 +23235,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23613,12 +23613,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23823,12 +23823,12 @@
       <c r="H557" t="inlineStr"/>
       <c r="I557" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23865,12 +23865,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24663,12 +24663,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24705,12 +24705,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24789,12 +24789,12 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25797,12 +25797,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26133,12 +26133,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26175,12 +26175,12 @@
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26763,12 +26763,12 @@
       <c r="H627" t="inlineStr"/>
       <c r="I627" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
